--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NAME</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>Rony</t>
+  </si>
+  <si>
+    <t>asdasdad</t>
+  </si>
+  <si>
+    <t>qqqqq</t>
+  </si>
+  <si>
+    <t>gggggggg</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -382,24 +391,24 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>30</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>35</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>40</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
